--- a/RiskAssessment/Risk Assessment.xlsx
+++ b/RiskAssessment/Risk Assessment.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="15180" windowHeight="9345"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Risks!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Risk ID</t>
   </si>
@@ -139,16 +139,85 @@
   </si>
   <si>
     <t>Alyssa will be conducting research on computer vision related to this particular activitity. Alyssa will be responsible for troubleshooting problems.</t>
+  </si>
+  <si>
+    <t>Unsatisfactory integration of QR codes</t>
+  </si>
+  <si>
+    <t>New technology for all team members.</t>
+  </si>
+  <si>
+    <t>Conducting initial research and prototypes for QR creation and recognition.</t>
+  </si>
+  <si>
+    <t>Caitlyn</t>
+  </si>
+  <si>
+    <t>Inexperienced team members</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Chris will use his expertise in the field to ensure the proper tools are used among team members to streamline the development process.</t>
+  </si>
+  <si>
+    <t>A majority of the team has never worked on a software project of this scale and is unsure of many processes and tools that would be helpful.</t>
+  </si>
+  <si>
+    <t>Shawn</t>
+  </si>
+  <si>
+    <t>Shawn will be communicating with the team regularly to stay abreast of any changes in availability/attendance and work to keep everyone up to date.</t>
+  </si>
+  <si>
+    <t>Poor team member commitment and communication</t>
+  </si>
+  <si>
+    <t>Conflicting schedules among team members may cause insufficient attendance at planning meetings and laboratories, causing them to fall out of touch with the project.</t>
+  </si>
+  <si>
+    <t>Poor time management</t>
+  </si>
+  <si>
+    <t>Shawn will generously schedule tasks and monitor the workload of each team member accordingly.</t>
+  </si>
+  <si>
+    <t>Potential lack of resources</t>
+  </si>
+  <si>
+    <t>Team iscurrently unable to identify what resources may needed over the course of the project. As such, needs may arise that cannot be fulfilled.</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Entire team will keep fellow members notified when they identify a need for resources.</t>
+  </si>
+  <si>
+    <t>Client availability</t>
+  </si>
+  <si>
+    <t>Client is an instructor with a heavy course load and may not always be able to respond to the team in a timely manner.</t>
+  </si>
+  <si>
+    <t>Shawn will remain the primary contact with the client to limit the amount of messages they receive.</t>
+  </si>
+  <si>
+    <t>Client/Shawn</t>
+  </si>
+  <si>
+    <t>Team members may be unable to meet scheduled timeline requirements due to improper estimation of the work required. Lack of productivity between semesters.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -668,17 +737,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="94" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="2" customWidth="1"/>
@@ -692,12 +761,12 @@
     <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="23.25">
       <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="5" customFormat="1" ht="65.25" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -726,7 +795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="9" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="9" customFormat="1" ht="51">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -756,103 +825,187 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="9" customFormat="1" ht="38.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="7"/>
+      <c r="B4" s="6">
+        <v>41929</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.4</v>
+      </c>
       <c r="G4" s="8">
         <f t="shared" ref="G4:G20" si="0">+E4*F4</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="9" customFormat="1" ht="51">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="7"/>
+      <c r="B5" s="6">
+        <v>41929</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.75</v>
+      </c>
       <c r="G5" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>3.75</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="9" customFormat="1" ht="63.75">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="7"/>
+      <c r="B6" s="6">
+        <v>41929</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.4</v>
+      </c>
       <c r="G6" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1.6</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="9" customFormat="1" ht="51">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="7"/>
+      <c r="B7" s="6">
+        <v>41929</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.6</v>
+      </c>
       <c r="G7" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>2.4</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="9" customFormat="1" ht="51">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="7"/>
+      <c r="B8" s="6">
+        <v>41929</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.25</v>
+      </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="9" customFormat="1" ht="38.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="7"/>
+      <c r="B9" s="6">
+        <v>41929</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.15</v>
+      </c>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0.75</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="9" customFormat="1">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -868,7 +1021,7 @@
       <c r="H10" s="8"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="9" customFormat="1">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -884,7 +1037,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="9" customFormat="1">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -900,7 +1053,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="9" customFormat="1">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -916,7 +1069,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="9" customFormat="1">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -932,7 +1085,7 @@
       <c r="H14" s="8"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="9" customFormat="1">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -948,7 +1101,7 @@
       <c r="H15" s="8"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="9" customFormat="1">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -964,7 +1117,7 @@
       <c r="H16" s="8"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" s="9" customFormat="1">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -980,7 +1133,7 @@
       <c r="H17" s="8"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="9" customFormat="1">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -996,7 +1149,7 @@
       <c r="H18" s="8"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="9" customFormat="1">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -1012,7 +1165,7 @@
       <c r="H19" s="8"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" s="9" customFormat="1">
       <c r="A20" s="3">
         <v>18</v>
       </c>
